--- a/target/classes/com/textdata/Vguard_Automation.xlsx
+++ b/target/classes/com/textdata/Vguard_Automation.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="6645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="6645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting" sheetId="3" r:id="rId1"/>
     <sheet name="Incident" sheetId="4" r:id="rId2"/>
+    <sheet name="IncidentAction" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:E20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
   <si>
     <t>demogaurav007</t>
   </si>
@@ -225,6 +227,195 @@
   </si>
   <si>
     <t>Attachments</t>
+  </si>
+  <si>
+    <t>Attachments1</t>
+  </si>
+  <si>
+    <t>Attachments2</t>
+  </si>
+  <si>
+    <t>Attachments3</t>
+  </si>
+  <si>
+    <t>Attachments4</t>
+  </si>
+  <si>
+    <t>C:\\Users\\GAURAV\\workspace\\Vguard_Automation\\Images\\Electric panel room.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\GAURAV\\workspace\\Vguard_Automation\\Images\\unsafe.jpg</t>
+  </si>
+  <si>
+    <t>Clickonthat</t>
+  </si>
+  <si>
+    <t>CHAU/INC/2020</t>
+  </si>
+  <si>
+    <t>TypeofInjury</t>
+  </si>
+  <si>
+    <t>First Aid Case</t>
+  </si>
+  <si>
+    <t>NatureofInjury</t>
+  </si>
+  <si>
+    <t>Concussions</t>
+  </si>
+  <si>
+    <t>AuthorizationAction</t>
+  </si>
+  <si>
+    <t>Send for further Review</t>
+  </si>
+  <si>
+    <t>Test comment Incident</t>
+  </si>
+  <si>
+    <t>DepartmentHeadUsername</t>
+  </si>
+  <si>
+    <t>DepartmentHeadPassword</t>
+  </si>
+  <si>
+    <t>demomathew</t>
+  </si>
+  <si>
+    <t>UnitMRUsername</t>
+  </si>
+  <si>
+    <t>UnitMRPassword</t>
+  </si>
+  <si>
+    <t>demodharmesh</t>
+  </si>
+  <si>
+    <t>AuthorizationActionUnitMR</t>
+  </si>
+  <si>
+    <t>Send for investigation</t>
+  </si>
+  <si>
+    <t>CommentUnitMR</t>
+  </si>
+  <si>
+    <t>searchemployee</t>
+  </si>
+  <si>
+    <t>operatorInvestigationUsername</t>
+  </si>
+  <si>
+    <t>operatorInvestigationPassword</t>
+  </si>
+  <si>
+    <t>Actiontobetaken</t>
+  </si>
+  <si>
+    <t>Near Miss capa Test</t>
+  </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>AuthorizationActionoperatorInvestigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigation Completed &amp; Sent for Cluster EHS Head Review </t>
+  </si>
+  <si>
+    <t>CommentoperatorInvestigation</t>
+  </si>
+  <si>
+    <t>ClusterEHSHeadUsername</t>
+  </si>
+  <si>
+    <t>ClusterEHSHeadPassword</t>
+  </si>
+  <si>
+    <t>demoakash</t>
+  </si>
+  <si>
+    <t>AuthorizationActionClusterEHSHead</t>
+  </si>
+  <si>
+    <t>Send for Unit MR Review</t>
+  </si>
+  <si>
+    <t>ClusterEHSHeadComment</t>
+  </si>
+  <si>
+    <t>InvstegationUnitMRUsername</t>
+  </si>
+  <si>
+    <t>InvstegationUnitMRPassword</t>
+  </si>
+  <si>
+    <t>Send for Unit Head Review</t>
+  </si>
+  <si>
+    <t>AuthorizationActionInvstegationUnitMR</t>
+  </si>
+  <si>
+    <t>InvstegationUnitMRComment</t>
+  </si>
+  <si>
+    <t>InvstegationUnitHEADUsername</t>
+  </si>
+  <si>
+    <t>InvstegationUnitHEADPassword</t>
+  </si>
+  <si>
+    <t>demomahesh</t>
+  </si>
+  <si>
+    <t>AuthorizationActionInvstegationUnitHEAD</t>
+  </si>
+  <si>
+    <t>Approve Investigation</t>
+  </si>
+  <si>
+    <t>InvstegationUnitHEADComment</t>
+  </si>
+  <si>
+    <t>Action Item of Incident</t>
+  </si>
+  <si>
+    <t>AuthorizationActionOperator</t>
+  </si>
+  <si>
+    <t>Complete (If Review L1 added)</t>
+  </si>
+  <si>
+    <t>Task completed Test comment</t>
+  </si>
+  <si>
+    <t>OperatorComment</t>
+  </si>
+  <si>
+    <t>AuthorizationActionDepartmentHead</t>
+  </si>
+  <si>
+    <t>Approve (If Review L2 added)</t>
+  </si>
+  <si>
+    <t>DepartmentHeadComment</t>
+  </si>
+  <si>
+    <t>UnitMRComment</t>
+  </si>
+  <si>
+    <t>Approve &amp; Close (If Review L2 not added)</t>
+  </si>
+  <si>
+    <t>DepartmentOP</t>
   </si>
 </sst>
 </file>
@@ -795,10 +986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:AX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,61 +1006,193 @@
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="70.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.7109375" customWidth="1"/>
+    <col min="28" max="28" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="30" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P1" t="s">
-        <v>69</v>
+      <c r="P1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -914,6 +1237,230 @@
       </c>
       <c r="O2" t="s">
         <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="38.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
